--- a/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
+++ b/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F9D8AA-835F-4D05-A2BB-B189D7BE93F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B9BF2-3398-49B7-9C8F-2F4BD038E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,9 +832,6 @@
     <t>subject_application_id: fse-referti</t>
   </si>
   <si>
-    <t>subject_application_vendor: sanmatteo</t>
-  </si>
-  <si>
     <t>subject_application_version: 2.0.0</t>
   </si>
   <si>
@@ -908,40 +905,43 @@
     <t>Forbidden: "{"traceID":"e7e7bcb1e2e2fb35cd52cda9bf8c8b74","spanID":"8b94587b5be72864","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo subject_role non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}"</t>
   </si>
   <si>
-    <t>2025-10-10T17:32:20Z</t>
-  </si>
-  <si>
-    <t>2b9f2d7024088851311fdae62deb1603</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.47f5bf0c05^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-10T17:37:27Z</t>
-  </si>
-  <si>
-    <t>198006dd3ac7de6eb5a6917edfddeb15</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.d9ba6f1649^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-10T17:41:30Z</t>
-  </si>
-  <si>
-    <t>c9f9daee0cc9623f0d474782dd0b4e72</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.335ad805a6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-10T17:44:16Z</t>
-  </si>
-  <si>
-    <t>fd8544335747723e94b9cb0dd84001db</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.7f1c51a7bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>subject_application_vendor: Poliambulatorio_San_Matteo</t>
+  </si>
+  <si>
+    <t>2025-10-19T16:41:51Z</t>
+  </si>
+  <si>
+    <t>efc94138917dea6d89cd6e21fe9623db</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.767b85b308^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-19T16:45:10Z</t>
+  </si>
+  <si>
+    <t>f6a42e83d35fb79167018d09180472f6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.9c14aaf602^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-19T16:51:07Z</t>
+  </si>
+  <si>
+    <t>263d2dd691583ed6a060e17dc6e32efc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.22b8155db2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-19T16:54:35Z</t>
+  </si>
+  <si>
+    <t>b7afb504a41e659beba4736a2c760f9c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.9975449f82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3000,13 +3000,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3116,7 +3117,7 @@
       <c r="A4" s="51"/>
       <c r="B4" s="52"/>
       <c r="C4" s="55" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="4"/>
@@ -3143,7 +3144,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="C5" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="47"/>
       <c r="F5" s="6"/>
@@ -3302,7 +3303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>31</v>
       </c>
@@ -3332,7 +3333,7 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
@@ -3345,7 +3346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>32</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -3379,7 +3380,7 @@
         <v>100</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P11" s="35" t="s">
         <v>100</v>
@@ -3394,7 +3395,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>39</v>
       </c>
@@ -3424,7 +3425,7 @@
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -3437,7 +3438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>40</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>100</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P13" s="35" t="s">
         <v>100</v>
@@ -3486,7 +3487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>47</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>51</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P14" s="35" t="s">
         <v>51</v>
@@ -3528,7 +3529,7 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T14" s="35"/>
       <c r="U14" s="36" t="s">
@@ -3539,7 +3540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>48</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>51</v>
       </c>
       <c r="O15" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P15" s="35" t="s">
         <v>51</v>
@@ -3581,7 +3582,7 @@
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T15" s="35"/>
       <c r="U15" s="36" t="s">
@@ -3592,7 +3593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>76</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>78</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>79</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
         <v>80</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>109</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -3758,7 +3759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>81</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>83</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>84</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>109</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
@@ -3883,7 +3884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33">
         <v>85</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33">
         <v>86</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33">
         <v>87</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33">
         <v>88</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="33">
         <v>89</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>90</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33">
         <v>91</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33">
         <v>92</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33">
         <v>93</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33">
         <v>152</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
         <v>154</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="33">
         <v>155</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33">
         <v>156</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>109</v>
       </c>
       <c r="L35" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
@@ -4418,7 +4419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>159</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33">
         <v>160</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33">
         <v>161</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="33">
         <v>162</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="33">
         <v>163</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>109</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
@@ -4625,7 +4626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="33">
         <v>164</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="33">
         <v>165</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="33">
         <v>166</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="33">
         <v>167</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="33">
         <v>168</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33">
         <v>169</v>
       </c>
@@ -4888,16 +4889,16 @@
         <v>149</v>
       </c>
       <c r="F47" s="34">
-        <v>45938</v>
+        <v>45949</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>51</v>
@@ -4935,7 +4936,7 @@
         <v>150</v>
       </c>
       <c r="F48" s="34">
-        <v>45940</v>
+        <v>45949</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>197</v>
@@ -4965,7 +4966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="33">
         <v>461</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="33">
         <v>462</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="33">
         <v>468</v>
       </c>
@@ -5105,16 +5106,16 @@
         <v>166</v>
       </c>
       <c r="F52" s="34">
-        <v>45940</v>
+        <v>45949</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -5152,16 +5153,16 @@
         <v>169</v>
       </c>
       <c r="F53" s="34">
-        <v>45940</v>
+        <v>45949</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>51</v>
@@ -5182,7 +5183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>474</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>109</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
@@ -5225,7 +5226,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="33">
         <v>475</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>109</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
@@ -9280,7 +9281,13 @@
       <c r="W610" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W55" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:W55" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="OK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
+++ b/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw - VER2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B9BF2-3398-49B7-9C8F-2F4BD038E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1FC670-BB9F-4C59-951F-C63962931C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,43 +905,43 @@
     <t>Forbidden: "{"traceID":"e7e7bcb1e2e2fb35cd52cda9bf8c8b74","spanID":"8b94587b5be72864","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo subject_role non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}"</t>
   </si>
   <si>
-    <t>subject_application_vendor: Poliambulatorio_San_Matteo</t>
-  </si>
-  <si>
-    <t>2025-10-19T16:41:51Z</t>
-  </si>
-  <si>
-    <t>efc94138917dea6d89cd6e21fe9623db</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.767b85b308^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-19T16:45:10Z</t>
-  </si>
-  <si>
-    <t>f6a42e83d35fb79167018d09180472f6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.9c14aaf602^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-19T16:51:07Z</t>
-  </si>
-  <si>
-    <t>263d2dd691583ed6a060e17dc6e32efc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.22b8155db2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-19T16:54:35Z</t>
-  </si>
-  <si>
-    <t>b7afb504a41e659beba4736a2c760f9c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.9975449f82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>subject_application_vendor: sanmatteo</t>
+  </si>
+  <si>
+    <t>2025-10-22T11:13:29Z</t>
+  </si>
+  <si>
+    <t>13f0e338e38f838b982782081c2c54f1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.d6e8dabbc3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-22T15:09:32Z</t>
+  </si>
+  <si>
+    <t>abbe44c8671277a303cc61ce637011b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.9459fde0d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-22T15:15:38Z</t>
+  </si>
+  <si>
+    <t>13fbd0d1a898b9cc4100f23877e72995</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.72ca5c4acc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-22T15:22:05Z</t>
+  </si>
+  <si>
+    <t>dbff1fe0f5922506c7998f529ed6c767</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.bfecd71b0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3007,7 +3007,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4889,16 +4889,16 @@
         <v>149</v>
       </c>
       <c r="F47" s="34">
-        <v>45949</v>
+        <v>45952</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>51</v>
@@ -4936,16 +4936,16 @@
         <v>150</v>
       </c>
       <c r="F48" s="34">
-        <v>45949</v>
+        <v>45952</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="J48" s="35" t="s">
         <v>51</v>
@@ -5106,16 +5106,16 @@
         <v>166</v>
       </c>
       <c r="F52" s="34">
-        <v>45949</v>
+        <v>45952</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -5153,16 +5153,16 @@
         <v>169</v>
       </c>
       <c r="F53" s="34">
-        <v>45949</v>
+        <v>45952</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>51</v>
@@ -11571,12 +11571,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11838,21 +11841,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11877,18 +11886,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
+++ b/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw - VER2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw - VER3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1FC670-BB9F-4C59-951F-C63962931C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5553D-7F21-4D94-B9EB-2613633D403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1290" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -917,31 +917,31 @@
     <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.d6e8dabbc3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-10-22T15:09:32Z</t>
-  </si>
-  <si>
-    <t>abbe44c8671277a303cc61ce637011b7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.9459fde0d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-22T15:15:38Z</t>
-  </si>
-  <si>
-    <t>13fbd0d1a898b9cc4100f23877e72995</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.72ca5c4acc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-22T15:22:05Z</t>
-  </si>
-  <si>
-    <t>dbff1fe0f5922506c7998f529ed6c767</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.bfecd71b0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-10-23T19:37:21Z</t>
+  </si>
+  <si>
+    <t>b6a28cc601d2bb346c817c31c5c70ab4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.419bd93552^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-23T19:39:41Z</t>
+  </si>
+  <si>
+    <t>f1009914632f4aa81dc80c9b05061dc5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.5b887016f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-23T19:41:53Z</t>
+  </si>
+  <si>
+    <t>3fb9591c91edb6384a1d0c8c30469d4b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.9c1f1acc5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3007,7 +3007,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4936,16 +4936,16 @@
         <v>150</v>
       </c>
       <c r="F48" s="34">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J48" s="35" t="s">
         <v>51</v>
@@ -5106,16 +5106,16 @@
         <v>166</v>
       </c>
       <c r="F52" s="34">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -5153,16 +5153,16 @@
         <v>169</v>
       </c>
       <c r="F53" s="34">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>51</v>
@@ -11571,15 +11571,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11841,27 +11838,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11886,9 +11877,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
+++ b/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw - VER3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw - VER4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5553D-7F21-4D94-B9EB-2613633D403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE4718E-BB0A-4303-90DC-D63E71BAE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1290" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,31 +917,31 @@
     <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.d6e8dabbc3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-10-23T19:37:21Z</t>
-  </si>
-  <si>
-    <t>b6a28cc601d2bb346c817c31c5c70ab4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.419bd93552^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-23T19:39:41Z</t>
-  </si>
-  <si>
-    <t>f1009914632f4aa81dc80c9b05061dc5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.5b887016f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-10-23T19:41:53Z</t>
-  </si>
-  <si>
-    <t>3fb9591c91edb6384a1d0c8c30469d4b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.9c1f1acc5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-10-25T17:29:54Z</t>
+  </si>
+  <si>
+    <t>182709780658d59569bf74e7d7f69a57</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.6814fdd07c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-25T17:32:21Z</t>
+  </si>
+  <si>
+    <t>2ba372123f7240ffe33b481451ee046b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.5f9c4ab08cac7457e9111a30e4664920607ea2c115a1433d7be98e97e64244ca.4dfd017f74^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-10-25T17:34:48Z</t>
+  </si>
+  <si>
+    <t>ebf6a36dc4efcdcd9862fbeb2dfa840c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.ea422ab6aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4936,16 +4936,16 @@
         <v>150</v>
       </c>
       <c r="F48" s="34">
-        <v>45953</v>
+        <v>45955</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J48" s="35" t="s">
         <v>51</v>
@@ -5106,16 +5106,16 @@
         <v>166</v>
       </c>
       <c r="F52" s="34">
-        <v>45953</v>
+        <v>45955</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -5153,16 +5153,16 @@
         <v>169</v>
       </c>
       <c r="F53" s="34">
-        <v>45953</v>
+        <v>45955</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>51</v>

--- a/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
+++ b/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw - VER4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE4718E-BB0A-4303-90DC-D63E71BAE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EAC31-16DF-4A27-9A9D-5A7563F4D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1290" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="210">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -893,9 +893,6 @@
     <t>I dati anagrafici vengono inseriti automaticamente leggendo la TS</t>
   </si>
   <si>
-    <t>I dati relativi alle procedure amministrative sono mappati a livello db</t>
-  </si>
-  <si>
     <t>Il poliambulatorio non gestisce le priorità</t>
   </si>
   <si>
@@ -942,6 +939,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.160.4.4.535fa30d7e25dd8a49f1536779734ec8286108d115da5045d77f3b4185d8f790.ea422ab6aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>I dati relativi alla tipologia dell'esame sono strutturati e inseriti a livello di db. Inoltre tale campo è obbligatorio a livello applicativo</t>
+  </si>
+  <si>
+    <t>I dati relativi alla tipologia dell'esame e gli altri dati amministrativi inerenti la sezione Prestazioni, sono strutturati e mappati a livello di db. Inoltre tale campo è obbligatorio a livello applicativo</t>
   </si>
 </sst>
 </file>
@@ -3000,14 +3003,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3117,7 +3119,7 @@
       <c r="A4" s="51"/>
       <c r="B4" s="52"/>
       <c r="C4" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="4"/>
@@ -3303,7 +3305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>31</v>
       </c>
@@ -3333,7 +3335,7 @@
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
@@ -3346,7 +3348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>32</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>39</v>
       </c>
@@ -3425,7 +3427,7 @@
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -3438,7 +3440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>40</v>
       </c>
@@ -3487,7 +3489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>47</v>
       </c>
@@ -3508,7 +3510,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="39"/>
       <c r="J14" s="35" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>108</v>
@@ -3526,8 +3528,12 @@
       <c r="P14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="Q14" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="S14" s="42" t="s">
         <v>190</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>48</v>
       </c>
@@ -3561,7 +3567,7 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
       <c r="J15" s="35" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K15" s="35" t="s">
         <v>108</v>
@@ -3579,8 +3585,12 @@
       <c r="P15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="Q15" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="S15" s="42" t="s">
         <v>190</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>76</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>78</v>
       </c>
@@ -3675,7 +3685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>79</v>
       </c>
@@ -3716,7 +3726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
         <v>80</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>81</v>
       </c>
@@ -3800,7 +3810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>83</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>84</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>109</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
@@ -3884,7 +3894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33">
         <v>85</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33">
         <v>86</v>
       </c>
@@ -3966,7 +3976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33">
         <v>87</v>
       </c>
@@ -4007,7 +4017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33">
         <v>88</v>
       </c>
@@ -4048,7 +4058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="33">
         <v>89</v>
       </c>
@@ -4089,7 +4099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="33">
         <v>90</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33">
         <v>91</v>
       </c>
@@ -4171,7 +4181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33">
         <v>92</v>
       </c>
@@ -4212,7 +4222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33">
         <v>93</v>
       </c>
@@ -4253,7 +4263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33">
         <v>152</v>
       </c>
@@ -4294,7 +4304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="33">
         <v>154</v>
       </c>
@@ -4335,7 +4345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="33">
         <v>155</v>
       </c>
@@ -4376,7 +4386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33">
         <v>156</v>
       </c>
@@ -4419,7 +4429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="33">
         <v>159</v>
       </c>
@@ -4460,7 +4470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33">
         <v>160</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33">
         <v>161</v>
       </c>
@@ -4542,7 +4552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="33">
         <v>162</v>
       </c>
@@ -4583,7 +4593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="33">
         <v>163</v>
       </c>
@@ -4610,7 +4620,7 @@
         <v>109</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
@@ -4626,7 +4636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="33">
         <v>164</v>
       </c>
@@ -4667,7 +4677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="33">
         <v>165</v>
       </c>
@@ -4708,7 +4718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="33">
         <v>166</v>
       </c>
@@ -4749,7 +4759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="33">
         <v>167</v>
       </c>
@@ -4790,7 +4800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="33">
         <v>168</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33">
         <v>169</v>
       </c>
@@ -4892,13 +4902,13 @@
         <v>45952</v>
       </c>
       <c r="G47" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="I47" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>51</v>
@@ -4939,13 +4949,13 @@
         <v>45955</v>
       </c>
       <c r="G48" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="I48" s="39" t="s">
         <v>207</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>208</v>
       </c>
       <c r="J48" s="35" t="s">
         <v>51</v>
@@ -4966,7 +4976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="33">
         <v>461</v>
       </c>
@@ -5007,7 +5017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="33">
         <v>462</v>
       </c>
@@ -5048,7 +5058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="33">
         <v>468</v>
       </c>
@@ -5109,13 +5119,13 @@
         <v>45955</v>
       </c>
       <c r="G52" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="H52" s="34" t="s">
+      <c r="I52" s="39" t="s">
         <v>201</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>202</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -5156,13 +5166,13 @@
         <v>45955</v>
       </c>
       <c r="G53" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="H53" s="34" t="s">
+      <c r="I53" s="39" t="s">
         <v>204</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>205</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>51</v>
@@ -5183,7 +5193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33">
         <v>474</v>
       </c>
@@ -5210,7 +5220,7 @@
         <v>109</v>
       </c>
       <c r="L54" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
@@ -5226,7 +5236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="72.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="33">
         <v>475</v>
       </c>
@@ -5253,7 +5263,7 @@
         <v>109</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
@@ -9281,13 +9291,7 @@
       <c r="W610" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W55" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="22">
-      <filters>
-        <filter val="OK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:W55" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -9308,7 +9312,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10:N55 P10:R55 J10:J55</xm:sqref>
+          <xm:sqref>M10:N55 J10:J55 P10:R55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -11571,12 +11575,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11838,21 +11845,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11877,18 +11890,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
+++ b/GATEWAY/S1#111#POLIAMBULATORIOSANMATTEOXX/Poliambulatorio_San_Matteo/fse-referti/2.0.0/accreditamento-checklist_V8.2.6.1_SANMATTEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\documenti\andrea\sanmatteo\fse\pacchetto_gw - VER4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897EAC31-16DF-4A27-9A9D-5A7563F4D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78CF3106-9A89-41E7-A5ED-840EE30DB03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="210">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3006,10 +3006,10 @@
   <dimension ref="A1:W610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3512,9 +3512,7 @@
       <c r="J14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="35" t="s">
-        <v>108</v>
-      </c>
+      <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35" t="s">
         <v>100</v>
@@ -3569,9 +3567,7 @@
       <c r="J15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="35" t="s">
-        <v>108</v>
-      </c>
+      <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35" t="s">
         <v>100</v>
@@ -11575,15 +11571,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11845,27 +11838,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11890,9 +11877,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
